--- a/Config/Datas/battlepreset.xlsx
+++ b/Config/Datas/battlepreset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -40,6 +40,9 @@
     <t>monsterlist</t>
   </si>
   <si>
+    <t>monsterPos</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -49,7 +52,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>(list#sep=,),int</t>
+    <t>(list#sep=,),string</t>
+  </si>
+  <si>
+    <t>(list#sep=|),vector2</t>
   </si>
   <si>
     <t>int</t>
@@ -67,7 +73,13 @@
     <t>怪物列表</t>
   </si>
   <si>
+    <t>怪物位置 必须一一对应</t>
+  </si>
+  <si>
     <t>区域</t>
+  </si>
+  <si>
+    <t>100,100</t>
   </si>
 </sst>
 </file>
@@ -683,11 +695,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -747,6 +762,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,19 +1021,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="18.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="10.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="21.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="36.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="10.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,51 +1047,75 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1"/>

--- a/Config/Datas/battlepreset.xlsx
+++ b/Config/Datas/battlepreset.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,12 @@
     <t>region</t>
   </si>
   <si>
+    <t>AppearMap</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>(set#sep=,),string</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -79,7 +88,19 @@
     <t>区域</t>
   </si>
   <si>
+    <t>出现在什么地图</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
     <t>100,100</t>
+  </si>
+  <si>
+    <t>CAVE</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -762,13 +783,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,20 +1035,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="21.9090909090909" customWidth="1"/>
     <col min="4" max="4" width="36.5454545454545" customWidth="1"/>
     <col min="5" max="5" width="10.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="16.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="21.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,59 +1066,83 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>1</v>
@@ -1111,10 +1151,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/Config/Datas/battlepreset.xlsx
+++ b/Config/Datas/battlepreset.xlsx
@@ -94,7 +94,7 @@
     <t>奖励</t>
   </si>
   <si>
-    <t>100,100</t>
+    <t>500,100</t>
   </si>
   <si>
     <t>CAVE</t>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
